--- a/participantlist (3).xlsx
+++ b/participantlist (3).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990FA145-6D58-7D4E-8DF7-CF33F1BB51FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8097DC7E-1F0D-E04F-AC31-F6645CAD9860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="12960" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="24320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="316">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -949,6 +949,39 @@
   </si>
   <si>
     <t>5/11/23 - completed via cloned repo</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>63d457e6518149adae9202cd</t>
+  </si>
+  <si>
+    <t>63ea4ab1ce4168cbe9f63775</t>
+  </si>
+  <si>
+    <t>60fd89617258b322c92fdd03</t>
+  </si>
+  <si>
+    <t>64023a98627b1116180dff0b</t>
+  </si>
+  <si>
+    <t>6321d7404a95a42175d1243d</t>
+  </si>
+  <si>
+    <t>R_2awMpgFmv539awy</t>
+  </si>
+  <si>
+    <t>R_3KAyhl3zMK3hkcw</t>
+  </si>
+  <si>
+    <t>R_ONhwZ5WeRdGr5VT</t>
+  </si>
+  <si>
+    <t>R_3e2bPex5zjc46N7</t>
+  </si>
+  <si>
+    <t>R_3MhWtOQUQrSR7pc</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1045,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,12 +1064,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1050,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1076,16 +1103,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,13 +1351,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N55" sqref="N55"/>
+      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4203,46 +4229,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="21" t="s">
+    <row r="67" spans="1:18" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="22" t="s">
         <v>250</v>
       </c>
       <c r="F67" s="24">
         <v>45014</v>
       </c>
-      <c r="I67" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J67" s="1" t="s">
+      <c r="I67" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K67" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="P67" s="21" t="s">
+      <c r="K67" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P67" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="C68" s="21"/>
+      <c r="D68" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="22" t="s">
         <v>251</v>
       </c>
       <c r="F68" s="11">
@@ -4262,16 +4289,17 @@
       </c>
     </row>
     <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="22" t="s">
         <v>252</v>
       </c>
       <c r="F69" s="11">
@@ -4286,21 +4314,22 @@
       <c r="K69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P69" s="20" t="s">
+      <c r="P69" s="18" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F70" s="11">
@@ -4320,16 +4349,17 @@
       </c>
     </row>
     <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="C71" s="21"/>
+      <c r="D71" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="22" t="s">
         <v>254</v>
       </c>
       <c r="F71" s="11">
@@ -4349,16 +4379,17 @@
       </c>
     </row>
     <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="22" t="s">
         <v>255</v>
       </c>
       <c r="F72" s="11">
@@ -4378,16 +4409,17 @@
       </c>
     </row>
     <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="C73" s="21"/>
+      <c r="D73" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="22" t="s">
         <v>256</v>
       </c>
       <c r="F73" s="11">
@@ -4407,16 +4439,17 @@
       </c>
     </row>
     <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="C74" s="21"/>
+      <c r="D74" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="22" t="s">
         <v>257</v>
       </c>
       <c r="F74" s="11">
@@ -4436,16 +4469,17 @@
       </c>
     </row>
     <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="C75" s="21"/>
+      <c r="D75" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="22" t="s">
         <v>258</v>
       </c>
       <c r="F75" s="11">
@@ -4465,16 +4499,17 @@
       </c>
     </row>
     <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="C76" s="21"/>
+      <c r="D76" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="22" t="s">
         <v>259</v>
       </c>
       <c r="F76" s="11">
@@ -4494,16 +4529,17 @@
       </c>
     </row>
     <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="C77" s="21"/>
+      <c r="D77" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="23" t="s">
         <v>260</v>
       </c>
       <c r="F77" s="11">
@@ -4526,16 +4562,17 @@
       </c>
     </row>
     <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="C78" s="21"/>
+      <c r="D78" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="22" t="s">
         <v>261</v>
       </c>
       <c r="F78" s="11">
@@ -4555,16 +4592,17 @@
       </c>
     </row>
     <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="C79" s="21"/>
+      <c r="D79" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="22" t="s">
         <v>262</v>
       </c>
       <c r="F79" s="11">
@@ -4587,16 +4625,17 @@
       </c>
     </row>
     <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="C80" s="21"/>
+      <c r="D80" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="22" t="s">
         <v>263</v>
       </c>
       <c r="F80" s="11">
@@ -4616,16 +4655,17 @@
       </c>
     </row>
     <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="C81" s="21"/>
+      <c r="D81" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="22" t="s">
         <v>264</v>
       </c>
       <c r="F81" s="11">
@@ -4648,16 +4688,17 @@
       </c>
     </row>
     <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="C82" s="21"/>
+      <c r="D82" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="E82" s="25" t="s">
+      <c r="E82" s="21" t="s">
         <v>281</v>
       </c>
       <c r="F82" s="11">
@@ -4686,6 +4727,96 @@
       </c>
       <c r="R82" s="5" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="11">
+        <v>45010</v>
+      </c>
+      <c r="D83" t="s">
+        <v>311</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F83" s="11">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C84" s="11">
+        <v>45010</v>
+      </c>
+      <c r="D84" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="F84" s="11">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C85" s="11">
+        <v>45010</v>
+      </c>
+      <c r="D85" t="s">
+        <v>313</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="F85" s="11">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C86" s="11">
+        <v>45010</v>
+      </c>
+      <c r="D86" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F86" s="11">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C87" s="11">
+        <v>45010</v>
+      </c>
+      <c r="D87" t="s">
+        <v>315</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="F87" s="11">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist (3).xlsx
+++ b/participantlist (3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8097DC7E-1F0D-E04F-AC31-F6645CAD9860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03FD57E-9A2B-9A48-8FDB-02FF00B84946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="24320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="2600" windowWidth="24320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="316">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1351,13 +1351,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="L51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomRight" activeCell="I83" sqref="I83:Q87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4745,6 +4745,9 @@
       <c r="F83" s="11">
         <v>45009</v>
       </c>
+      <c r="P83" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
@@ -4762,6 +4765,9 @@
       <c r="F84" s="11">
         <v>45009</v>
       </c>
+      <c r="P84" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
@@ -4779,6 +4785,9 @@
       <c r="F85" s="11">
         <v>45009</v>
       </c>
+      <c r="P85" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
@@ -4796,6 +4805,9 @@
       <c r="F86" s="11">
         <v>45009</v>
       </c>
+      <c r="P86" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
@@ -4813,10 +4825,36 @@
       <c r="F87" s="11">
         <v>45009</v>
       </c>
+      <c r="P87" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
         <v>305</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P89" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P90" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P91" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P92" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
